--- a/excel_sheet_race_transposed_true.xlsx
+++ b/excel_sheet_race_transposed_true.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anikapuri/6.C35 Visualization &amp; Society/GitHub/A2-Visual-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B7E6EBA-DCB8-154E-8BF7-87997B725B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{ACE4D3F6-4D1F-A943-A3B2-FED9BBA9FE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="1740" windowWidth="23100" windowHeight="17640" activeTab="2"/>
+    <workbookView xWindow="900" yWindow="760" windowWidth="23100" windowHeight="17640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Census + Corp Ownership and Occ" sheetId="1" r:id="rId1"/>
-    <sheet name="race" sheetId="4" r:id="rId2"/>
-    <sheet name="race_transposed" sheetId="5" r:id="rId3"/>
-    <sheet name="owner_rates" sheetId="2" r:id="rId4"/>
-    <sheet name="corporate_owner" sheetId="3" r:id="rId5"/>
+    <sheet name="housing" sheetId="6" r:id="rId2"/>
+    <sheet name="housing_transposed" sheetId="7" r:id="rId3"/>
+    <sheet name="race" sheetId="4" r:id="rId4"/>
+    <sheet name="race_transposed" sheetId="5" r:id="rId5"/>
+    <sheet name="owner_rates" sheetId="2" r:id="rId6"/>
+    <sheet name="corporate_owner" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="73">
   <si>
     <t>Neighborhood</t>
   </si>
@@ -234,6 +236,15 @@
   </si>
   <si>
     <t>Other_actual</t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>Total Units</t>
+  </si>
+  <si>
+    <t>Vacant Units</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN442"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -55027,6 +55038,482 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2">
+        <v>12527</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6037</v>
+      </c>
+      <c r="D2" s="2">
+        <v>21874</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6654</v>
+      </c>
+      <c r="F2" s="2">
+        <v>9525</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3644</v>
+      </c>
+      <c r="H2" s="2">
+        <v>47965</v>
+      </c>
+      <c r="I2" s="2">
+        <v>18016</v>
+      </c>
+      <c r="J2" s="2">
+        <v>13968</v>
+      </c>
+      <c r="K2" s="2">
+        <v>12613</v>
+      </c>
+      <c r="L2" s="2">
+        <v>18891</v>
+      </c>
+      <c r="M2" s="2">
+        <v>456</v>
+      </c>
+      <c r="N2" s="2">
+        <v>9346</v>
+      </c>
+      <c r="O2" s="2">
+        <v>6832</v>
+      </c>
+      <c r="P2" s="2">
+        <v>12114</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>22034</v>
+      </c>
+      <c r="R2" s="2">
+        <v>19140</v>
+      </c>
+      <c r="S2" s="2">
+        <v>4622</v>
+      </c>
+      <c r="T2" s="2">
+        <v>16619</v>
+      </c>
+      <c r="U2" s="2">
+        <v>5243</v>
+      </c>
+      <c r="V2" s="2">
+        <v>14070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2">
+        <v>787</v>
+      </c>
+      <c r="C3" s="2">
+        <v>552</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1052</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1253</v>
+      </c>
+      <c r="F3" s="2">
+        <v>593</v>
+      </c>
+      <c r="G3" s="2">
+        <v>345</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3142</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1321</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1307</v>
+      </c>
+      <c r="K3" s="2">
+        <v>547</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1167</v>
+      </c>
+      <c r="M3" s="2">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2">
+        <v>525</v>
+      </c>
+      <c r="O3" s="2">
+        <v>518</v>
+      </c>
+      <c r="P3" s="2">
+        <v>580</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1689</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1179</v>
+      </c>
+      <c r="S3" s="2">
+        <v>998</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="U3" s="2">
+        <v>671</v>
+      </c>
+      <c r="V3" s="2">
+        <v>680</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2">
+        <v>12527</v>
+      </c>
+      <c r="C2" s="2">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6037</v>
+      </c>
+      <c r="C3" s="2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2">
+        <v>21874</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6654</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9525</v>
+      </c>
+      <c r="C6" s="2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3644</v>
+      </c>
+      <c r="C7" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2">
+        <v>47965</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2">
+        <v>18016</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2">
+        <v>13968</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2">
+        <v>12613</v>
+      </c>
+      <c r="C11" s="2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2">
+        <v>18891</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2">
+        <v>456</v>
+      </c>
+      <c r="C13" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9346</v>
+      </c>
+      <c r="C14" s="2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6832</v>
+      </c>
+      <c r="C15" s="2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2">
+        <v>12114</v>
+      </c>
+      <c r="C16" s="2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2">
+        <v>22034</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2">
+        <v>19140</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4622</v>
+      </c>
+      <c r="C19" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2">
+        <v>16619</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5243</v>
+      </c>
+      <c r="C21" s="2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2">
+        <v>14070</v>
+      </c>
+      <c r="C22" s="2">
+        <v>680</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
@@ -55517,11 +56004,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -56125,7 +56612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
@@ -57636,7 +58123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
